--- a/templates/community/RPTU/RPTU_FS_AlgaeGrowth_TurboID.xlsx
+++ b/templates/community/RPTU/RPTU_FS_AlgaeGrowth_TurboID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\Swate-templates\templates\community\RPTU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5FACEB-F918-48D3-B58A-4E88C5699863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502A41C3-710B-4117-B16C-510FBCB376AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
   </bookViews>
   <sheets>
     <sheet name="AlgaeGrowth" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="208">
   <si>
     <t>Source Name</t>
   </si>
@@ -656,15 +656,6 @@
   </si>
   <si>
     <t>RPTU - MBS</t>
-  </si>
-  <si>
-    <t>PRIDE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
-  </si>
-  <si>
-    <t>DPBO</t>
   </si>
   <si>
     <t>Algae</t>
@@ -976,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1038,20 +1029,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,30 +1044,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1127,6 +1092,9 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;hour&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1148,12 +1116,30 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="0.00\ &quot;degree celsius&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="0.00\ &quot;hour&quot;"/>
     </dxf>
     <dxf>
@@ -1166,6 +1152,9 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milliliter&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1178,9 +1167,6 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.00\ &quot;degree celsius&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1190,21 +1176,18 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;cells per milliliter&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;hour&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1214,28 +1197,10 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milliliter&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;cells per milliliter&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1312,56 +1277,56 @@
     <tableColumn id="21" xr3:uid="{7DB0B649-E48F-45AD-9696-EF70F49E8C68}" name="Characteristic [phenotype]" dataDxfId="52"/>
     <tableColumn id="22" xr3:uid="{37106013-1501-4BB4-98E7-249FDC0CB59C}" name="Term Source REF (EFO:0000651)" dataDxfId="51"/>
     <tableColumn id="23" xr3:uid="{6BF3BC0F-98B9-4B42-A503-E555DA611BC6}" name="Term Accession Number (EFO:0000651)" dataDxfId="50"/>
-    <tableColumn id="74" xr3:uid="{9EEB925A-CA93-4E50-88B7-29E15CD12927}" name="Characteristic [plasmid]" dataDxfId="8"/>
-    <tableColumn id="75" xr3:uid="{8DAC819A-ADDB-4F3B-9EC4-CB434F0C8AB9}" name="Term Source REF (OBI:0000430)" dataDxfId="7"/>
-    <tableColumn id="76" xr3:uid="{A58DA813-1C69-4A65-A4B0-0D8FE05C8234}" name="Term Accession Number (OBI:0000430)" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{C4610118-E9E1-4B45-A31D-F5652B1436E9}" name="Characteristic [biological replicate group]" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{37D54672-F96C-4205-9D26-0E1353DBD60A}" name="Term Source REF (DPBO:1000183)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{D223D8E4-B8AB-4B3D-B799-1132F7E527B9}" name="Term Accession Number (DPBO:1000183)" dataDxfId="3"/>
-    <tableColumn id="49" xr3:uid="{4BFFAC93-83C5-4702-8BE5-E766E8EDB626}" name="Characteristic [Cell Density]" dataDxfId="49"/>
-    <tableColumn id="62" xr3:uid="{E3BCE629-E354-4F8A-B2BC-1DC186985F48}" name="Unit " dataDxfId="48"/>
-    <tableColumn id="63" xr3:uid="{0703B18C-8FA4-4302-A800-1DB466FB8FCC}" name="Term Source REF (NCIT:C120538)" dataDxfId="47"/>
-    <tableColumn id="64" xr3:uid="{0B732CA3-8760-4DF5-973A-5177B12766BF}" name="Term Accession Number (NCIT:C120538)" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{3AEEC57A-7A0D-4A18-8088-6EAFBA4E28FD}" name="Parameter [biological replicate]" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{14E01B67-0DDB-4DA9-A3A3-895334F2A79C}" name="Term Source REF (DPBO:0000042)" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{D020C484-5ED4-434B-BC1E-DF19448FD043}" name="Term Accession Number (DPBO:0000042)" dataDxfId="1"/>
-    <tableColumn id="31" xr3:uid="{CAF0BDB6-22F2-4099-9512-51A6D07031B6}" name="Parameter [culture medium]" dataDxfId="45"/>
-    <tableColumn id="32" xr3:uid="{8C50CD01-52ED-4719-99C2-C6EB34C4DDA1}" name="Term Source REF (OBI:0000079)" dataDxfId="44"/>
-    <tableColumn id="33" xr3:uid="{C3E23A56-C13B-401C-954B-150F7F3B82B0}" name="Term Accession Number (OBI:0000079)" dataDxfId="43"/>
-    <tableColumn id="34" xr3:uid="{1106169F-0F23-48FE-98FB-381A34655047}" name="Parameter [culture medium volume]" dataDxfId="42"/>
-    <tableColumn id="35" xr3:uid="{0DFE2850-B3E1-4D47-AC18-D00B5920C1BF}" name="Unit (#2)" dataDxfId="41"/>
-    <tableColumn id="36" xr3:uid="{12FE82B6-CC37-40B1-89EB-52A2FF9BD98F}" name="Term Source REF (DPBO:1000155)" dataDxfId="40"/>
-    <tableColumn id="37" xr3:uid="{1B8CCDBC-3061-4EE7-B0AF-F790D157148D}" name="Term Accession Number (DPBO:1000155)" dataDxfId="39"/>
-    <tableColumn id="42" xr3:uid="{6735FCF3-684F-402A-B5BD-4B6662FE89F5}" name="Parameter [growth day length]" dataDxfId="38"/>
-    <tableColumn id="43" xr3:uid="{B25F433F-01E4-4C3B-B541-FDF3ACF797DD}" name="Unit (#3)" dataDxfId="37"/>
-    <tableColumn id="44" xr3:uid="{D416899C-39DA-482C-859C-285EDCE349CD}" name="Term Source REF (DPBO:0000041)" dataDxfId="36"/>
-    <tableColumn id="45" xr3:uid="{BA742993-EE32-49F8-8914-E1A3DC7C8B13}" name="Term Accession Number (DPBO:0000041)" dataDxfId="35"/>
-    <tableColumn id="50" xr3:uid="{C1C9C6F7-87F4-4CFD-B017-9A016C870D28}" name="Parameter [day light intensity exposure]" dataDxfId="34"/>
-    <tableColumn id="51" xr3:uid="{3A8F4864-D8E3-4BB7-B205-5CF2A8755BC7}" name="Unit (#4)" dataDxfId="33"/>
-    <tableColumn id="52" xr3:uid="{FB86F759-372F-4D0B-A1DB-B124BB1E782E}" name="Term Source REF (PECO:0007193)" dataDxfId="32"/>
-    <tableColumn id="53" xr3:uid="{799DFD2D-183F-4760-BE2D-08D570747E2E}" name="Term Accession Number (PECO:0007193)" dataDxfId="31"/>
-    <tableColumn id="54" xr3:uid="{2F03BF61-B302-458B-80CB-E7242264920C}" name="Parameter [temperature]" dataDxfId="30"/>
-    <tableColumn id="55" xr3:uid="{D8B6EAAC-7028-41D3-B9FC-B2E73E131912}" name="Unit (#5)" dataDxfId="29"/>
-    <tableColumn id="56" xr3:uid="{3257709E-BF9E-44E7-A939-56681321226E}" name="Term Source REF (EFO:0001702)" dataDxfId="28"/>
-    <tableColumn id="57" xr3:uid="{24695AAA-E095-4904-AE02-3AFF854AF0E1}" name="Term Accession Number (EFO:0001702)" dataDxfId="27"/>
-    <tableColumn id="58" xr3:uid="{F9CEE53A-EDEB-4B96-B111-8737CD3BBA62}" name="Parameter [abiotic plant exposure]" dataDxfId="26"/>
-    <tableColumn id="61" xr3:uid="{F716F648-A010-4BE9-9DF8-2A0E13322B5D}" name="Unit (#6)" dataDxfId="25"/>
-    <tableColumn id="59" xr3:uid="{706D0599-C707-4088-B24A-9E3DB4D6827F}" name="Term Source REF (PECO:0007191)" dataDxfId="24"/>
-    <tableColumn id="60" xr3:uid="{F39FFDFD-2970-46C9-AED0-70A3ED8C9FBE}" name="Term Accession Number (PECO:0007191)" dataDxfId="23"/>
-    <tableColumn id="70" xr3:uid="{D4B78796-63A2-40A3-8CEA-1FE1CFDD600F}" name="Parameter [Exposure Duration]" dataDxfId="22"/>
-    <tableColumn id="71" xr3:uid="{6C8D7E16-7491-4069-97F7-BFC93755DBFA}" name="Unit (#7)" dataDxfId="21"/>
-    <tableColumn id="72" xr3:uid="{B2EECA11-9E63-4440-807B-717D5796CC63}" name="Term Source REF (NCIT:C83280)" dataDxfId="20"/>
-    <tableColumn id="73" xr3:uid="{5CFDB842-49AC-4786-9E71-1B738909F3DD}" name="Term Accession Number (NCIT:C83280)" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{AC0F1A9A-8C0E-47D2-8C7D-A8328BBBC825}" name="Parameter [cell collecting]" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BF6CA45C-87FE-4D97-9024-59811E65B051}" name="Term Source REF (OBI:0001483)" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{B53884E5-45F4-47FC-8318-080A2DE0E13A}" name="Term Accession Number (OBI:0001483)" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{2302EBEC-EF08-47F8-AD15-6FA7B2AA130F}" name="Parameter [sample storage]" dataDxfId="15"/>
-    <tableColumn id="18" xr3:uid="{3F47D139-4347-42F7-816D-301B15B90D31}" name="Unit (#8)" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{1CFDF4F2-93A3-43BB-9726-38D1F0CA31E7}" name="Term Source REF (DPBO:0000011)" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{8D0199EE-61C8-4EF5-8AA7-A04867D9607A}" name="Term Accession Number (DPBO:0000011)" dataDxfId="12"/>
-    <tableColumn id="87" xr3:uid="{BB3E690E-C285-420D-BCCC-6AB9DE0BABD6}" name="Parameter [study variable attribute]" dataDxfId="11"/>
-    <tableColumn id="88" xr3:uid="{40099C19-5FEB-4312-B581-5D0CD2ED9466}" name="Term Source REF (MS:1001807)" dataDxfId="10"/>
-    <tableColumn id="89" xr3:uid="{BFA28A1B-131F-41BD-BE89-2890680A3E53}" name="Term Accession Number (MS:1001807)" dataDxfId="9"/>
+    <tableColumn id="74" xr3:uid="{9EEB925A-CA93-4E50-88B7-29E15CD12927}" name="Characteristic [plasmid]" dataDxfId="49"/>
+    <tableColumn id="75" xr3:uid="{8DAC819A-ADDB-4F3B-9EC4-CB434F0C8AB9}" name="Term Source REF (OBI:0000430)" dataDxfId="48"/>
+    <tableColumn id="76" xr3:uid="{A58DA813-1C69-4A65-A4B0-0D8FE05C8234}" name="Term Accession Number (OBI:0000430)" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{C4610118-E9E1-4B45-A31D-F5652B1436E9}" name="Characteristic [biological replicate group]" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{37D54672-F96C-4205-9D26-0E1353DBD60A}" name="Term Source REF (DPBO:1000183)" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{D223D8E4-B8AB-4B3D-B799-1132F7E527B9}" name="Term Accession Number (DPBO:1000183)" dataDxfId="44"/>
+    <tableColumn id="49" xr3:uid="{4BFFAC93-83C5-4702-8BE5-E766E8EDB626}" name="Characteristic [Cell Density]" dataDxfId="43"/>
+    <tableColumn id="62" xr3:uid="{E3BCE629-E354-4F8A-B2BC-1DC186985F48}" name="Unit " dataDxfId="42"/>
+    <tableColumn id="63" xr3:uid="{0703B18C-8FA4-4302-A800-1DB466FB8FCC}" name="Term Source REF (NCIT:C120538)" dataDxfId="41"/>
+    <tableColumn id="64" xr3:uid="{0B732CA3-8760-4DF5-973A-5177B12766BF}" name="Term Accession Number (NCIT:C120538)" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{3AEEC57A-7A0D-4A18-8088-6EAFBA4E28FD}" name="Parameter [biological replicate]" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{14E01B67-0DDB-4DA9-A3A3-895334F2A79C}" name="Term Source REF (DPBO:0000042)" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{D020C484-5ED4-434B-BC1E-DF19448FD043}" name="Term Accession Number (DPBO:0000042)" dataDxfId="37"/>
+    <tableColumn id="31" xr3:uid="{CAF0BDB6-22F2-4099-9512-51A6D07031B6}" name="Parameter [culture medium]" dataDxfId="36"/>
+    <tableColumn id="32" xr3:uid="{8C50CD01-52ED-4719-99C2-C6EB34C4DDA1}" name="Term Source REF (OBI:0000079)" dataDxfId="35"/>
+    <tableColumn id="33" xr3:uid="{C3E23A56-C13B-401C-954B-150F7F3B82B0}" name="Term Accession Number (OBI:0000079)" dataDxfId="34"/>
+    <tableColumn id="34" xr3:uid="{1106169F-0F23-48FE-98FB-381A34655047}" name="Parameter [culture medium volume]" dataDxfId="33"/>
+    <tableColumn id="35" xr3:uid="{0DFE2850-B3E1-4D47-AC18-D00B5920C1BF}" name="Unit (#2)" dataDxfId="32"/>
+    <tableColumn id="36" xr3:uid="{12FE82B6-CC37-40B1-89EB-52A2FF9BD98F}" name="Term Source REF (DPBO:1000155)" dataDxfId="31"/>
+    <tableColumn id="37" xr3:uid="{1B8CCDBC-3061-4EE7-B0AF-F790D157148D}" name="Term Accession Number (DPBO:1000155)" dataDxfId="30"/>
+    <tableColumn id="42" xr3:uid="{6735FCF3-684F-402A-B5BD-4B6662FE89F5}" name="Parameter [growth day length]" dataDxfId="29"/>
+    <tableColumn id="43" xr3:uid="{B25F433F-01E4-4C3B-B541-FDF3ACF797DD}" name="Unit (#3)" dataDxfId="28"/>
+    <tableColumn id="44" xr3:uid="{D416899C-39DA-482C-859C-285EDCE349CD}" name="Term Source REF (DPBO:0000041)" dataDxfId="27"/>
+    <tableColumn id="45" xr3:uid="{BA742993-EE32-49F8-8914-E1A3DC7C8B13}" name="Term Accession Number (DPBO:0000041)" dataDxfId="26"/>
+    <tableColumn id="50" xr3:uid="{C1C9C6F7-87F4-4CFD-B017-9A016C870D28}" name="Parameter [day light intensity exposure]" dataDxfId="25"/>
+    <tableColumn id="51" xr3:uid="{3A8F4864-D8E3-4BB7-B205-5CF2A8755BC7}" name="Unit (#4)" dataDxfId="24"/>
+    <tableColumn id="52" xr3:uid="{FB86F759-372F-4D0B-A1DB-B124BB1E782E}" name="Term Source REF (PECO:0007193)" dataDxfId="23"/>
+    <tableColumn id="53" xr3:uid="{799DFD2D-183F-4760-BE2D-08D570747E2E}" name="Term Accession Number (PECO:0007193)" dataDxfId="22"/>
+    <tableColumn id="54" xr3:uid="{2F03BF61-B302-458B-80CB-E7242264920C}" name="Parameter [temperature]" dataDxfId="21"/>
+    <tableColumn id="55" xr3:uid="{D8B6EAAC-7028-41D3-B9FC-B2E73E131912}" name="Unit (#5)" dataDxfId="20"/>
+    <tableColumn id="56" xr3:uid="{3257709E-BF9E-44E7-A939-56681321226E}" name="Term Source REF (EFO:0001702)" dataDxfId="19"/>
+    <tableColumn id="57" xr3:uid="{24695AAA-E095-4904-AE02-3AFF854AF0E1}" name="Term Accession Number (EFO:0001702)" dataDxfId="18"/>
+    <tableColumn id="58" xr3:uid="{F9CEE53A-EDEB-4B96-B111-8737CD3BBA62}" name="Parameter [abiotic plant exposure]" dataDxfId="17"/>
+    <tableColumn id="61" xr3:uid="{F716F648-A010-4BE9-9DF8-2A0E13322B5D}" name="Unit (#6)" dataDxfId="16"/>
+    <tableColumn id="59" xr3:uid="{706D0599-C707-4088-B24A-9E3DB4D6827F}" name="Term Source REF (PECO:0007191)" dataDxfId="15"/>
+    <tableColumn id="60" xr3:uid="{F39FFDFD-2970-46C9-AED0-70A3ED8C9FBE}" name="Term Accession Number (PECO:0007191)" dataDxfId="14"/>
+    <tableColumn id="70" xr3:uid="{D4B78796-63A2-40A3-8CEA-1FE1CFDD600F}" name="Parameter [Exposure Duration]" dataDxfId="13"/>
+    <tableColumn id="71" xr3:uid="{6C8D7E16-7491-4069-97F7-BFC93755DBFA}" name="Unit (#7)" dataDxfId="12"/>
+    <tableColumn id="72" xr3:uid="{B2EECA11-9E63-4440-807B-717D5796CC63}" name="Term Source REF (NCIT:C83280)" dataDxfId="11"/>
+    <tableColumn id="73" xr3:uid="{5CFDB842-49AC-4786-9E71-1B738909F3DD}" name="Term Accession Number (NCIT:C83280)" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{AC0F1A9A-8C0E-47D2-8C7D-A8328BBBC825}" name="Parameter [cell collecting]" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BF6CA45C-87FE-4D97-9024-59811E65B051}" name="Term Source REF (OBI:0001483)" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B53884E5-45F4-47FC-8318-080A2DE0E13A}" name="Term Accession Number (OBI:0001483)" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{2302EBEC-EF08-47F8-AD15-6FA7B2AA130F}" name="Parameter [sample storage]" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{3F47D139-4347-42F7-816D-301B15B90D31}" name="Unit (#8)" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{1CFDF4F2-93A3-43BB-9726-38D1F0CA31E7}" name="Term Source REF (DPBO:0000011)" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{8D0199EE-61C8-4EF5-8AA7-A04867D9607A}" name="Term Accession Number (DPBO:0000011)" dataDxfId="3"/>
+    <tableColumn id="87" xr3:uid="{BB3E690E-C285-420D-BCCC-6AB9DE0BABD6}" name="Parameter [study variable attribute]" dataDxfId="2"/>
+    <tableColumn id="88" xr3:uid="{40099C19-5FEB-4312-B581-5D0CD2ED9466}" name="Term Source REF (MS:1001807)" dataDxfId="1"/>
+    <tableColumn id="89" xr3:uid="{BFA28A1B-131F-41BD-BE89-2890680A3E53}" name="Term Accession Number (MS:1001807)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0993B9FA-C8E7-4F0E-9E7C-0FBA32769019}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1369,9 +1334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1409,7 +1374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1515,7 +1480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1657,7 +1622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1731,79 +1696,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0D40F-2FA9-4C21-A087-3BB23680294D}">
-  <dimension ref="A1:BZ24"/>
+  <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="38" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="42.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="39.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="42.5546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.88671875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="39.88671875" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="32" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="39.85546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="39.88671875" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="29" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.88671875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="37.88671875" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="40.28515625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="40.33203125" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="46" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="39.85546875" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="40.28515625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="39.88671875" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="40.33203125" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="26" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="32.140625" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="39.85546875" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="32.42578125" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="32.109375" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="39.88671875" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.44140625" hidden="1" customWidth="1"/>
     <col min="52" max="52" width="31" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="27.85546875" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="30.88671875" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="40.88671875" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="27.88671875" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="40.33203125" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1809,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>51</v>
@@ -1853,13 +1818,13 @@
         <v>52</v>
       </c>
       <c r="Q1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="T1" t="s">
         <v>13</v>
@@ -1873,14 +1838,14 @@
       <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y1" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>201</v>
+      <c r="X1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>198</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>17</v>
@@ -1985,7 +1950,7 @@
         <v>50</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="BJ1" s="3" t="s">
         <v>53</v>
@@ -1997,7 +1962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2047,7 +2012,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>61</v>
@@ -2067,13 +2032,13 @@
       <c r="W2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y2" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Y2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA2" s="4" t="s">
@@ -2191,7 +2156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -2241,7 +2206,7 @@
         <v>61</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>61</v>
@@ -2261,13 +2226,13 @@
       <c r="W3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="38" t="s">
+      <c r="Y3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA3" s="4" t="s">
@@ -2385,7 +2350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -2435,7 +2400,7 @@
         <v>61</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>61</v>
@@ -2455,13 +2420,13 @@
       <c r="W4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z4" s="38" t="s">
+      <c r="Y4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA4" s="4" t="s">
@@ -2579,7 +2544,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2629,7 +2594,7 @@
         <v>61</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>61</v>
@@ -2649,13 +2614,13 @@
       <c r="W5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X5" s="38" t="s">
+      <c r="X5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Y5" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z5" s="38" t="s">
+      <c r="Y5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA5" s="4" t="s">
@@ -2773,7 +2738,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -2823,7 +2788,7 @@
         <v>61</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>61</v>
@@ -2843,13 +2808,13 @@
       <c r="W6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X6" s="38" t="s">
+      <c r="X6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="38" t="s">
+      <c r="Y6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA6" s="4" t="s">
@@ -2967,7 +2932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -3017,7 +2982,7 @@
         <v>61</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>61</v>
@@ -3037,13 +3002,13 @@
       <c r="W7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X7" s="38" t="s">
+      <c r="X7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y7" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z7" s="38" t="s">
+      <c r="Y7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA7" s="4" t="s">
@@ -3161,7 +3126,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -3211,7 +3176,7 @@
         <v>61</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>61</v>
@@ -3231,13 +3196,13 @@
       <c r="W8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Y8" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z8" s="38" t="s">
+      <c r="Y8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA8" s="4" t="s">
@@ -3355,7 +3320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -3405,7 +3370,7 @@
         <v>61</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>61</v>
@@ -3425,13 +3390,13 @@
       <c r="W9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Y9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z9" s="38" t="s">
+      <c r="Y9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA9" s="4" t="s">
@@ -3549,7 +3514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3599,13 +3564,13 @@
         <v>61</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T10" s="5">
         <v>9000000</v>
@@ -3619,13 +3584,13 @@
       <c r="W10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X10" s="38" t="s">
+      <c r="X10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y10" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z10" s="38" t="s">
+      <c r="Y10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA10" s="4" t="s">
@@ -3743,7 +3708,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -3793,13 +3758,13 @@
         <v>61</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T11" s="5">
         <v>9000000</v>
@@ -3813,13 +3778,13 @@
       <c r="W11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X11" s="38" t="s">
+      <c r="X11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y11" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z11" s="38" t="s">
+      <c r="Y11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA11" s="4" t="s">
@@ -3937,7 +3902,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -3987,13 +3952,13 @@
         <v>61</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T12" s="5">
         <v>9000000</v>
@@ -4007,13 +3972,13 @@
       <c r="W12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X12" s="38" t="s">
+      <c r="X12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Y12" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z12" s="38" t="s">
+      <c r="Y12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z12" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA12" s="4" t="s">
@@ -4131,7 +4096,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -4181,13 +4146,13 @@
         <v>61</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T13" s="5">
         <v>9000000</v>
@@ -4201,13 +4166,13 @@
       <c r="W13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X13" s="38" t="s">
+      <c r="X13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z13" s="38" t="s">
+      <c r="Y13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA13" s="4" t="s">
@@ -4325,7 +4290,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -4375,13 +4340,13 @@
         <v>61</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T14" s="5">
         <v>9000000</v>
@@ -4395,13 +4360,13 @@
       <c r="W14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X14" s="38" t="s">
+      <c r="X14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y14" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z14" s="38" t="s">
+      <c r="Y14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA14" s="4" t="s">
@@ -4519,7 +4484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -4569,13 +4534,13 @@
         <v>61</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T15" s="5">
         <v>9000000</v>
@@ -4589,13 +4554,13 @@
       <c r="W15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X15" s="38" t="s">
+      <c r="X15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y15" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z15" s="38" t="s">
+      <c r="Y15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA15" s="4" t="s">
@@ -4713,7 +4678,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -4763,13 +4728,13 @@
         <v>61</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T16" s="5">
         <v>9000000</v>
@@ -4783,13 +4748,13 @@
       <c r="W16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X16" s="38" t="s">
+      <c r="X16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Y16" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z16" s="38" t="s">
+      <c r="Y16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z16" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA16" s="4" t="s">
@@ -4907,7 +4872,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -4957,13 +4922,13 @@
         <v>61</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="T17" s="5">
         <v>9000000</v>
@@ -4977,13 +4942,13 @@
       <c r="W17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="X17" s="38" t="s">
+      <c r="X17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Y17" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z17" s="38" t="s">
+      <c r="Y17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AA17" s="4" t="s">
@@ -5101,7 +5066,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>115</v>
       </c>
@@ -5129,12 +5094,12 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="32"/>
+      <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
       <c r="T20" s="25" t="s">
         <v>63</v>
       </c>
@@ -5148,56 +5113,56 @@
       <c r="X20" s="24"/>
       <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="40"/>
-      <c r="AU20" s="40"/>
-      <c r="AV20" s="40"/>
-      <c r="AW20" s="40"/>
-      <c r="AX20" s="40"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="40"/>
-      <c r="BB20" s="40" t="s">
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="24"/>
+      <c r="AS20" s="24"/>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="24"/>
+      <c r="AV20" s="24"/>
+      <c r="AW20" s="24"/>
+      <c r="AX20" s="24"/>
+      <c r="AY20" s="35"/>
+      <c r="AZ20" s="24"/>
+      <c r="BA20" s="24"/>
+      <c r="BB20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="BC20" s="40" t="s">
+      <c r="BC20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="BD20" s="40" t="s">
+      <c r="BD20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="40"/>
-      <c r="BG20" s="40" t="s">
+      <c r="BE20" s="37"/>
+      <c r="BF20" s="24"/>
+      <c r="BG20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="BH20" s="40" t="s">
+      <c r="BH20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="BI20" s="40"/>
-      <c r="BJ20" s="40"/>
-      <c r="BK20" s="40"/>
-      <c r="BL20" s="45"/>
+      <c r="BI20" s="24"/>
+      <c r="BJ20" s="24"/>
+      <c r="BK20" s="24"/>
+      <c r="BL20" s="38"/>
     </row>
-    <row r="21" spans="1:64" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>116</v>
       </c>
@@ -5233,143 +5198,141 @@
       </c>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="33" t="s">
+      <c r="N21" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="33" t="s">
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
       <c r="T21" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="U21" s="29" t="s">
+      <c r="U21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="V21" s="29" t="s">
+      <c r="V21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="W21" s="29" t="s">
+      <c r="W21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="X21" s="48" t="s">
+      <c r="X21" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="47" t="s">
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AB21" s="47" t="s">
+      <c r="AB21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AC21" s="47" t="s">
+      <c r="AC21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AD21" s="47" t="s">
+      <c r="AD21" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AE21" s="47" t="s">
+      <c r="AE21" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AF21" s="47" t="s">
+      <c r="AF21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AG21" s="47" t="s">
+      <c r="AG21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AH21" s="47" t="s">
+      <c r="AH21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AI21" s="47" t="s">
+      <c r="AI21" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AJ21" s="47" t="s">
+      <c r="AJ21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AK21" s="47" t="s">
+      <c r="AK21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AL21" s="47" t="s">
+      <c r="AL21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AM21" s="47" t="s">
+      <c r="AM21" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AN21" s="47" t="s">
+      <c r="AN21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AO21" s="47" t="s">
+      <c r="AO21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AP21" s="47" t="s">
+      <c r="AP21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AQ21" s="47" t="s">
+      <c r="AQ21" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="AR21" s="47" t="s">
+      <c r="AR21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AS21" s="47" t="s">
+      <c r="AS21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AT21" s="47" t="s">
+      <c r="AT21" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AU21" s="47" t="s">
+      <c r="AU21" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AV21" s="47" t="s">
+      <c r="AV21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AW21" s="47" t="s">
+      <c r="AW21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="AX21" s="47" t="s">
+      <c r="AX21" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AY21" s="47" t="s">
+      <c r="AY21" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AZ21" s="47"/>
-      <c r="BA21" s="47"/>
-      <c r="BB21" s="47" t="s">
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="BC21" s="47" t="s">
+      <c r="BC21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="BD21" s="47" t="s">
+      <c r="BD21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="BE21" s="47" t="s">
+      <c r="BE21" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="BF21" s="47" t="s">
+      <c r="BF21" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="BG21" s="47" t="s">
+      <c r="BG21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="BH21" s="47" t="s">
+      <c r="BH21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="BI21" s="48" t="s">
+      <c r="BI21" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="BJ21" s="48"/>
-      <c r="BK21" s="48"/>
-      <c r="BL21" s="46"/>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="31"/>
+      <c r="BL21" s="26"/>
     </row>
-    <row r="22" spans="1:64" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:64" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>140</v>
       </c>
       <c r="C22" s="27"/>
@@ -5383,67 +5346,65 @@
       <c r="K22" s="28"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
-      <c r="N22" s="35" t="s">
+      <c r="N22" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="33"/>
       <c r="T22" s="27"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
       <c r="X22" s="23"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="39" t="s">
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="47"/>
-      <c r="AQ22" s="47"/>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="47"/>
-      <c r="AW22" s="47"/>
-      <c r="AX22" s="47"/>
-      <c r="AY22" s="47"/>
-      <c r="AZ22" s="47"/>
-      <c r="BA22" s="47"/>
-      <c r="BB22" s="47"/>
-      <c r="BC22" s="47"/>
-      <c r="BD22" s="47"/>
-      <c r="BE22" s="47"/>
-      <c r="BF22" s="39" t="s">
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="BG22" s="47"/>
-      <c r="BH22" s="47"/>
-      <c r="BI22" s="48"/>
-      <c r="BJ22" s="48"/>
-      <c r="BK22" s="48"/>
-      <c r="BL22" s="49" t="s">
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
+      <c r="BK22" s="31"/>
+      <c r="BL22" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="U24" s="10" t="s">
         <v>118</v>
       </c>
@@ -5467,32 +5428,32 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>145</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>147</v>
       </c>
@@ -5500,7 +5461,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>148</v>
       </c>
@@ -5508,7 +5469,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>149</v>
       </c>
@@ -5516,79 +5477,73 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="18"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>175</v>
-      </c>
+      <c r="B8" s="19"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>176</v>
-      </c>
+      <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>177</v>
-      </c>
+      <c r="B10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>156</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
         <v>180</v>
       </c>
-      <c r="D12" t="s">
-        <v>183</v>
-      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" t="s">
         <v>181</v>
       </c>
-      <c r="D13" t="s">
-        <v>184</v>
-      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>158</v>
       </c>
@@ -5596,118 +5551,118 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" t="s">
         <v>185</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>188</v>
       </c>
-      <c r="D16" t="s">
-        <v>191</v>
-      </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
         <v>186</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>189</v>
       </c>
-      <c r="D17" t="s">
-        <v>192</v>
-      </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>162</v>
       </c>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>207</v>
+      <c r="E19" s="21" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B20" s="17"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>168</v>
       </c>
       <c r="B24" s="17"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>169</v>
       </c>
       <c r="B25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>170</v>
       </c>
       <c r="B26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>171</v>
       </c>

--- a/templates/community/RPTU/RPTU_FS_AlgaeGrowth_TurboID.xlsx
+++ b/templates/community/RPTU/RPTU_FS_AlgaeGrowth_TurboID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502A41C3-710B-4117-B16C-510FBCB376AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE804D14-47CF-4F0D-BF8C-78AADCAF7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
   </bookViews>
   <sheets>
     <sheet name="AlgaeGrowth" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="207">
   <si>
     <t>Source Name</t>
   </si>
@@ -664,15 +664,6 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C86587</t>
   </si>
   <si>
-    <t>growth protocol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0003789</t>
-  </si>
-  <si>
-    <t>EFO</t>
-  </si>
-  <si>
     <t>Proteomics</t>
   </si>
   <si>
@@ -755,6 +746,12 @@
   </si>
   <si>
     <t>annotationTableSweetSkunk69</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>GO:0040007</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1806,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>51</v>
@@ -1818,13 +1815,13 @@
         <v>52</v>
       </c>
       <c r="Q1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="T1" t="s">
         <v>13</v>
@@ -1839,13 +1836,13 @@
         <v>16</v>
       </c>
       <c r="X1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Y1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Z1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>17</v>
@@ -1950,7 +1947,7 @@
         <v>50</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="BJ1" s="3" t="s">
         <v>53</v>
@@ -2012,7 +2009,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>61</v>
@@ -2206,7 +2203,7 @@
         <v>61</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>61</v>
@@ -2400,7 +2397,7 @@
         <v>61</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>61</v>
@@ -2594,7 +2591,7 @@
         <v>61</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>61</v>
@@ -2788,7 +2785,7 @@
         <v>61</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>61</v>
@@ -2982,7 +2979,7 @@
         <v>61</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>61</v>
@@ -3176,7 +3173,7 @@
         <v>61</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>61</v>
@@ -3370,7 +3367,7 @@
         <v>61</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>61</v>
@@ -3564,13 +3561,13 @@
         <v>61</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T10" s="5">
         <v>9000000</v>
@@ -3758,13 +3755,13 @@
         <v>61</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T11" s="5">
         <v>9000000</v>
@@ -3952,13 +3949,13 @@
         <v>61</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T12" s="5">
         <v>9000000</v>
@@ -4146,13 +4143,13 @@
         <v>61</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T13" s="5">
         <v>9000000</v>
@@ -4340,13 +4337,13 @@
         <v>61</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T14" s="5">
         <v>9000000</v>
@@ -4534,13 +4531,13 @@
         <v>61</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T15" s="5">
         <v>9000000</v>
@@ -4728,13 +4725,13 @@
         <v>61</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T16" s="5">
         <v>9000000</v>
@@ -4922,13 +4919,13 @@
         <v>61</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>78</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="T17" s="5">
         <v>9000000</v>
@@ -5428,7 +5425,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B8:B10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5442,7 +5439,7 @@
         <v>145</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -5450,7 +5447,7 @@
         <v>146</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -5482,7 +5479,7 @@
         <v>150</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5523,10 +5520,10 @@
         <v>175</v>
       </c>
       <c r="C12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" t="s">
         <v>177</v>
-      </c>
-      <c r="D12" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -5537,10 +5534,10 @@
         <v>176</v>
       </c>
       <c r="C13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s">
         <v>178</v>
-      </c>
-      <c r="D13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -5549,9 +5546,6 @@
       </c>
       <c r="B14" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>179</v>
       </c>
       <c r="D14" t="s">
         <v>78</v>
@@ -5568,16 +5562,16 @@
         <v>160</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
         <v>182</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>185</v>
       </c>
-      <c r="D16" t="s">
-        <v>188</v>
-      </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -5585,16 +5579,16 @@
         <v>161</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
         <v>183</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>186</v>
       </c>
-      <c r="D17" t="s">
-        <v>189</v>
-      </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -5608,16 +5602,16 @@
         <v>163</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>190</v>
-      </c>
       <c r="E19" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">

--- a/templates/community/RPTU/RPTU_FS_AlgaeGrowth_TurboID.xlsx
+++ b/templates/community/RPTU/RPTU_FS_AlgaeGrowth_TurboID.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\RPTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE804D14-47CF-4F0D-BF8C-78AADCAF7421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6170E4-B1F6-4926-B37E-BD512B6FA6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0EF3954B-6C77-46F6-A095-1A73D4FD96C0}"/>
   </bookViews>
   <sheets>
     <sheet name="AlgaeGrowth" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
